--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181.0646693168046</v>
+        <v>-57.40997659871164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429403</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4279208.203439103</v>
+        <v>4171154.26153583</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>215.2285648127964</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -817,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>70.54466168670291</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>156.7784549731791</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.1409460352257</v>
       </c>
       <c r="G5" t="n">
-        <v>185.2071699786023</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.7504511463245</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>383.3590907834186</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>49.40944820975952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.553567514357</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>376.6861762689736</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>16.87089136023326</v>
+        <v>92.2311196057924</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
         <v>424.2958575201043</v>
@@ -1853,7 +1855,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>163.1476869177289</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>93.20265817819819</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2239,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>25.30817366908154</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>267.960108666678</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>396.7961273016037</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>106.3785108036302</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>282.0587206135786</v>
+      </c>
+      <c r="D26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.9790740437535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>71.02747652411061</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2776,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>241.5570092365761</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>73.74498359523473</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
         <v>424.2958575201043</v>
@@ -2801,13 +2803,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>4.665583214490516</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>126.5538903268827</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.27810833336623</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,13 +3009,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3029,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>385.6469269706821</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>264.192616710993</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>152.9189507365546</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>125.4289004454252</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>155.8532364480161</v>
       </c>
       <c r="X35" t="n">
-        <v>46.26926615534656</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.3792129943162</v>
       </c>
       <c r="U37" t="n">
-        <v>260.2915433175625</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>405.6726681999897</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>196.367567780873</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.4012337133193</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3667,13 +3669,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>98.58583512006639</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>19.76988317734234</v>
+        <v>17.69539570346167</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3901,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>78.71748910988967</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>181.0765084323517</v>
+        <v>347.3637975681711</v>
       </c>
       <c r="G44" t="n">
-        <v>159.4921886272153</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0765084323517</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.67675412602683</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.4921886272153</v>
+        <v>159.582856075998</v>
       </c>
       <c r="U46" t="n">
-        <v>181.0765084323517</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0765084323517</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>181.0765084323517</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>412.1526519641617</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1479.780839360421</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1220.558536677438</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>857.9415866112644</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>453.0861320222976</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451.6659604160876</v>
+        <v>700.5034523966074</v>
       </c>
       <c r="C4" t="n">
-        <v>451.6659604160876</v>
+        <v>527.9417408798323</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>362.063748081355</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>192.3057443320923</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1641.225609687538</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.930654234675</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W4" t="n">
-        <v>870.9042498209665</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X4" t="n">
-        <v>870.9042498209665</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.4845791350747</v>
+        <v>892.3220711155946</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="C5" t="n">
-        <v>510.5685620045878</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="D5" t="n">
-        <v>510.5685620045878</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="E5" t="n">
-        <v>510.5685620045878</v>
+        <v>444.6038378080297</v>
       </c>
       <c r="F5" t="n">
-        <v>510.5685620045878</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4568,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4601,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y5" t="n">
-        <v>510.5685620045878</v>
+        <v>873.1855120707613</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4652,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.6920270441282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C7" t="n">
-        <v>227.6920270441282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
         <v>33.94366860160834</v>
@@ -4723,25 +4725,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4756,19 +4758,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y7" t="n">
-        <v>419.5106457631153</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.36045797446834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C8" t="n">
-        <v>34.36045797446834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D8" t="n">
-        <v>34.36045797446834</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E8" t="n">
-        <v>34.36045797446834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
         <v>34.36045797446834</v>
@@ -4802,22 +4804,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1309.952025248681</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="Y8" t="n">
-        <v>460.6600284593761</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4869,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4884,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4963,19 +4965,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>509.5707382202689</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M10" t="n">
-        <v>929.6236371651722</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N10" t="n">
-        <v>1349.676536110076</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P10" t="n">
         <v>1697.183430080417</v>
@@ -4984,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D11" t="n">
-        <v>444.6038378080297</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E11" t="n">
-        <v>444.6038378080297</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5039,28 +5041,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5078,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>1316.69234294004</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,40 +5108,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q12" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R12" t="n">
         <v>1697.183430080417</v>
@@ -5200,19 +5202,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L13" t="n">
-        <v>726.9120049407049</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M13" t="n">
-        <v>726.9120049407049</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N13" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O13" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P13" t="n">
         <v>1697.183430080417</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.3927724551322</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C14" t="n">
-        <v>890.3927724551322</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D14" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5276,28 +5278,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K14" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L14" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K14" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="L14" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="M14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5318,10 +5320,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>1316.69234294004</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1316.69234294004</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5343,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5361,19 +5363,19 @@
         <v>778.554892512724</v>
       </c>
       <c r="L15" t="n">
-        <v>778.554892512724</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="M15" t="n">
-        <v>778.554892512724</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="N15" t="n">
-        <v>778.554892512724</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="O15" t="n">
-        <v>778.554892512724</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>227.6920270441282</v>
+        <v>473.5714734656729</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E16" t="n">
         <v>210.6507226398521</v>
@@ -5437,19 +5439,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>509.954387939391</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M16" t="n">
-        <v>509.954387939391</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N16" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
         <v>1697.183430080417</v>
@@ -5464,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U16" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.348475529303</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W16" t="n">
-        <v>892.3220711155946</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X16" t="n">
-        <v>646.930316449007</v>
+        <v>892.8097628705518</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.5106457631153</v>
+        <v>665.39009218466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1318.974446717864</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.974446717864</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D17" t="n">
-        <v>890.3927724551322</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E17" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
         <v>33.94366860160834</v>
@@ -5513,25 +5515,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M17" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O17" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q17" t="n">
         <v>1697.183430080417</v>
@@ -5555,10 +5557,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y17" t="n">
-        <v>1318.974446717864</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>368.4973157021125</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>368.4973157021125</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>368.4973157021125</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>198.7393119528497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5677,16 +5679,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>761.8145120199619</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M19" t="n">
-        <v>761.8145120199619</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N19" t="n">
-        <v>761.8145120199619</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5716,7 +5718,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>368.4973157021125</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C20" t="n">
-        <v>1306.35999992257</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D20" t="n">
-        <v>870.4502150970143</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E20" t="n">
-        <v>436.6754702553094</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>436.6754702553094</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.11942280532</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.502472739146</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160836</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206596</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.1364226482442</v>
+        <v>236.2145344268032</v>
       </c>
       <c r="C22" t="n">
-        <v>749.5747111314691</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D22" t="n">
-        <v>583.6967183329918</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E22" t="n">
-        <v>413.9387145837291</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
-        <v>237.2316605454853</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>71.64038557131298</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.181380009883</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>2145.748379262989</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1858.792871133419</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W22" t="n">
-        <v>1586.766466719711</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.374712053123</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.955041367231</v>
+        <v>428.0331531457903</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>744.3459918350084</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="C23" t="n">
-        <v>744.3459918350084</v>
+        <v>863.7463012287189</v>
       </c>
       <c r="D23" t="n">
-        <v>744.3459918350084</v>
+        <v>435.1646269659873</v>
       </c>
       <c r="E23" t="n">
-        <v>744.3459918350084</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F23" t="n">
-        <v>744.3459918350084</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>342.9481604582723</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1954.407975719776</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2190.771296621483</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1828.15434655531</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1423.298891966343</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X23" t="n">
-        <v>1423.298891966343</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y23" t="n">
-        <v>1015.012768265996</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J24" t="n">
-        <v>53.40121652862856</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K24" t="n">
-        <v>53.40121652862856</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L24" t="n">
-        <v>53.40121652862856</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>394.9608689238808</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1055.800923465659</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1716.640978007438</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>1716.640978007438</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1716.640978007438</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1132.45937714051</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C25" t="n">
-        <v>959.897665623735</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D25" t="n">
-        <v>794.0196728252577</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E25" t="n">
-        <v>624.2616690759949</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F25" t="n">
-        <v>447.554615037751</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G25" t="n">
-        <v>281.9633400635787</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.819457729425</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.94001130788</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U25" t="n">
-        <v>2069.115825625685</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V25" t="n">
-        <v>2069.115825625685</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W25" t="n">
-        <v>1797.089421211977</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="X25" t="n">
-        <v>1551.697666545389</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="Y25" t="n">
-        <v>1324.277995859497</v>
+        <v>1024.341879988165</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>891.1070171270717</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="C26" t="n">
-        <v>462.52534286434</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="D26" t="n">
-        <v>462.52534286434</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6227,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L26" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M26" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N26" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6257,19 +6259,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="Y26" t="n">
-        <v>1317.406587611979</v>
+        <v>1437.961127397434</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>778.554892512724</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210.6507226398521</v>
+        <v>452.1536521710448</v>
       </c>
       <c r="C28" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D28" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E28" t="n">
         <v>210.6507226398521</v>
@@ -6385,49 +6387,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>509.954387939391</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M28" t="n">
-        <v>509.954387939391</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N28" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T28" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U28" t="n">
-        <v>1013.629614209975</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V28" t="n">
-        <v>726.6741060804052</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W28" t="n">
-        <v>454.6477016666967</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X28" t="n">
-        <v>210.6507226398521</v>
+        <v>871.3919415759237</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.6507226398521</v>
+        <v>643.972270890032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.974446717864</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="D29" t="n">
-        <v>890.3927724551322</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6464,16 +6466,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O29" t="n">
         <v>687.9235674375537</v>
@@ -6491,22 +6493,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
       <c r="U29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
       <c r="V29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
       <c r="W29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
       <c r="X29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
       <c r="Y29" t="n">
-        <v>1393.464329137293</v>
+        <v>1608.818845946587</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.7238357097111</v>
+        <v>508.2409388405115</v>
       </c>
       <c r="C31" t="n">
-        <v>339.7238357097111</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D31" t="n">
-        <v>173.8458429112338</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E31" t="n">
-        <v>173.8458429112338</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F31" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6619,25 +6621,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6646,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1650.43786610732</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1404.558419685775</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1126.125418938881</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V31" t="n">
-        <v>839.1699108093112</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W31" t="n">
-        <v>567.1435063956028</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X31" t="n">
-        <v>567.1435063956028</v>
+        <v>927.4792282453905</v>
       </c>
       <c r="Y31" t="n">
-        <v>339.7238357097111</v>
+        <v>700.0595575594987</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>423.4860190770448</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C32" t="n">
-        <v>423.4860190770448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D32" t="n">
-        <v>423.4860190770448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E32" t="n">
         <v>33.94366860160834</v>
@@ -6698,28 +6700,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L32" t="n">
-        <v>687.9235674375537</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M32" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N32" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P32" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q32" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
@@ -6728,22 +6730,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.531556264254</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1250.914606198081</v>
+        <v>867.3807974533067</v>
       </c>
       <c r="W32" t="n">
-        <v>1250.914606198081</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X32" t="n">
-        <v>831.7721427773914</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y32" t="n">
-        <v>423.4860190770448</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,37 +6767,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H33" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160836</v>
       </c>
       <c r="I33" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206596</v>
       </c>
       <c r="J33" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>873.3120173069476</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7503057901725</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D34" t="n">
-        <v>534.8723129916953</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E34" t="n">
-        <v>365.1143092424325</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F34" t="n">
-        <v>188.4072552041887</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G34" t="n">
         <v>33.94366860160834</v>
@@ -6856,52 +6858,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8145120199619</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M34" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O34" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.942061378414</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X34" t="n">
-        <v>1292.550306711827</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y34" t="n">
-        <v>1065.130636025935</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.8884439079882</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C35" t="n">
-        <v>724.8884439079882</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D35" t="n">
-        <v>724.8884439079882</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E35" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F35" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6938,22 +6940,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O35" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P35" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>771.6250763881362</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>771.6250763881362</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X35" t="n">
-        <v>724.8884439079882</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y35" t="n">
-        <v>724.8884439079882</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="36">
@@ -7005,31 +7007,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H36" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160836</v>
       </c>
       <c r="I36" t="n">
-        <v>60.00734176206595</v>
+        <v>60.00734176206596</v>
       </c>
       <c r="J36" t="n">
         <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F37" t="n">
         <v>33.94366860160834</v>
@@ -7099,46 +7101,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M37" t="n">
-        <v>872.2064493144727</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N37" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U37" t="n">
-        <v>1434.262679254597</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.307171125027</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W37" t="n">
-        <v>875.2807667113186</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X37" t="n">
-        <v>629.8890120447311</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.4693413588393</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1134.24202645431</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="C38" t="n">
-        <v>724.4716545351282</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="D38" t="n">
-        <v>724.4716545351282</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="E38" t="n">
-        <v>724.4716545351282</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>521.4249017249305</v>
       </c>
       <c r="G38" t="n">
         <v>323.0738231583921</v>
@@ -7172,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>1134.24202645431</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W38" t="n">
-        <v>1134.24202645431</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X38" t="n">
-        <v>1134.24202645431</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y38" t="n">
-        <v>1134.24202645431</v>
+        <v>521.4249017249305</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L39" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M39" t="n">
         <v>804.6185656731816</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>1224.671464618085</v>
       </c>
-      <c r="M39" t="n">
-        <v>1277.130531135514</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1277.130531135514</v>
-      </c>
       <c r="O39" t="n">
-        <v>1277.130531135514</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P39" t="n">
-        <v>1277.130531135514</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q39" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R39" t="n">
         <v>1697.183430080417</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1113.00182921349</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="C40" t="n">
-        <v>940.4401176967148</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D40" t="n">
-        <v>774.5621248982375</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E40" t="n">
-        <v>604.8041211489747</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F40" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G40" t="n">
         <v>262.5057921365585</v>
@@ -7336,46 +7338,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M40" t="n">
-        <v>452.1535503695694</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N40" t="n">
-        <v>872.2064493144727</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1516.524240083786</v>
+        <v>1438.360409741983</v>
       </c>
       <c r="U40" t="n">
-        <v>1516.524240083786</v>
+        <v>1159.927408995089</v>
       </c>
       <c r="V40" t="n">
-        <v>1229.568731954216</v>
+        <v>872.9719008655193</v>
       </c>
       <c r="W40" t="n">
-        <v>1229.568731954216</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="X40" t="n">
-        <v>1229.568731954216</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="Y40" t="n">
-        <v>1229.568731954216</v>
+        <v>600.9454964518109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>771.6250763881362</v>
+        <v>908.266909529336</v>
       </c>
       <c r="C41" t="n">
-        <v>343.0434021254046</v>
+        <v>908.266909529336</v>
       </c>
       <c r="D41" t="n">
-        <v>343.0434021254046</v>
+        <v>908.266909529336</v>
       </c>
       <c r="E41" t="n">
-        <v>343.0434021254046</v>
+        <v>479.6852352666043</v>
       </c>
       <c r="F41" t="n">
-        <v>343.0434021254046</v>
+        <v>51.81780567581205</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7412,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M41" t="n">
         <v>687.9235674375537</v>
       </c>
       <c r="N41" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O41" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W41" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X41" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="Y41" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L42" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M42" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N42" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O42" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>206.5053801183834</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C43" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D43" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E43" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7591,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1270.644793662241</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="U43" t="n">
-        <v>992.2117929153466</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="V43" t="n">
-        <v>705.2562847857771</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="W43" t="n">
-        <v>625.7436695232623</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="X43" t="n">
-        <v>625.7436695232623</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y43" t="n">
-        <v>398.3239988373705</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>541.4004696563243</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C44" t="n">
-        <v>541.4004696563243</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D44" t="n">
-        <v>541.4004696563243</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="E44" t="n">
-        <v>358.4949055832417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="F44" t="n">
-        <v>175.5893415101591</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>196.6204822802937</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>196.6204822802937</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M44" t="n">
-        <v>196.6204822802937</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N44" t="n">
-        <v>196.6204822802937</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>724.3060337294069</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V44" t="n">
-        <v>724.3060337294069</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W44" t="n">
-        <v>724.3060337294069</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X44" t="n">
-        <v>724.3060337294069</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.3060337294069</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.48612067458814</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>14.48612067458814</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>14.48612067458814</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>399.0812805311022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>724.3060337294069</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>547.9694867293751</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>365.0639226562926</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>182.15835858321</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>27.29092282208998</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.48612067458814</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>101.065805839278</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>101.065805839278</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>101.065805839278</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M46" t="n">
-        <v>280.3315491873062</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N46" t="n">
-        <v>280.3315491873062</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>563.2028128938358</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U46" t="n">
-        <v>380.2972488207532</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V46" t="n">
-        <v>197.3916847476707</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W46" t="n">
-        <v>14.48612067458814</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X46" t="n">
-        <v>14.48612067458814</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.48612067458814</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8298,19 +8300,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8532,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8611,22 +8613,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>202.897590957096</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L12" t="n">
+        <v>79.31589866453203</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9085,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9325,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>370.2350542247758</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M24" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9802,19 +9804,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9957,19 +9959,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>385.2554146752024</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10033,16 +10035,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>203.2851159259061</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10051,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="M32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>370.2350542247758</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O35" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P35" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="P35" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10665,10 +10667,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10747,13 +10749,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>58.38468441396105</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10762,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10902,17 +10904,17 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M39" t="n">
-        <v>52.98895607821123</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P42" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L42" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>2.89759419967416</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>97.49087508054578</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,25 +22549,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>23.36958101317225</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22600,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>2.637990042895353</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22705,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67455118378962</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18.16152852468227</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22771,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22786,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22793,13 +22795,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>17.44780925965864</v>
       </c>
       <c r="G5" t="n">
-        <v>212.1766830843664</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22939,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>140.468761724168</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23027,10 +23029,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23078,16 +23080,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>17.44780925965841</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>354.7938142535836</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>17.03518778052728</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23318,10 +23320,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>38.26486251750879</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>48.31678347635085</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23558,7 +23560,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>38.26486251750879</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>153.9652030413741</v>
+        <v>78.60497479581491</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>48.31678347635085</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
         <v>7.254829457195569</v>
@@ -23741,7 +23743,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -23795,7 +23797,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23896,10 +23898,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>11.79229658013239</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>304.1811948847705</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.5279207325258</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.0764661133807</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>32.64087009168401</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.5593263162915</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>151.7023274748323</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24497,7 +24499,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24509,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.22418841958955</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>99.8086178774967</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.380827883345546</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>360.0160644931762</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
         <v>7.254829457195569</v>
@@ -24689,13 +24691,13 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24731,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.2009716412012</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>44.28220407472466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>111.3708466816171</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,13 +24919,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>43.79007042260565</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>94.79816385451875</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.01641148787604</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -25135,7 +25137,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>143.8772399241461</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>244.9536635950609</v>
       </c>
       <c r="X35" t="n">
-        <v>368.6817726311359</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25321,7 +25323,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>105.0414389630131</v>
       </c>
       <c r="U37" t="n">
-        <v>15.3571274218632</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>28.08837988842117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25403,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>201.0162852820958</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.49919881847789</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>144.8348168372629</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>377.6139698856264</v>
+        <v>379.6884573595071</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.7757286248844</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>190.5886512596817</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.960066347707</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25871,16 +25873,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>248.360488960936</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>242.5122468625326</v>
+        <v>76.22495772671323</v>
       </c>
       <c r="G44" t="n">
-        <v>237.8916644357535</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25919,10 +25921,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04983432626892</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>112.5441673025446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -26074,22 +26076,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>83.92846333011394</v>
+        <v>83.83779588133126</v>
       </c>
       <c r="U46" t="n">
-        <v>94.572162307074</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0094446159221</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>88.22963193721966</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507458.5089822947</v>
+        <v>360729.042403468</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507458.5089822947</v>
+        <v>360729.042403468</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153948.1339043493</v>
+        <v>360729.042403468</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>66111.28565914044</v>
       </c>
       <c r="D2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914046</v>
       </c>
       <c r="E2" t="n">
         <v>66111.28565914044</v>
@@ -26326,34 +26328,34 @@
         <v>66111.28565914044</v>
       </c>
       <c r="G2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="H2" t="n">
-        <v>93002.58782592393</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="I2" t="n">
-        <v>93002.58782592391</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="J2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="K2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="L2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="M2" t="n">
-        <v>66111.28565914043</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="N2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="O2" t="n">
+        <v>66111.28565914044</v>
+      </c>
+      <c r="P2" t="n">
         <v>66111.28565914043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>28214.27681405946</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>6500.075391072234</v>
       </c>
       <c r="C4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="D4" t="n">
         <v>6500.075391072234</v>
@@ -26427,28 +26429,28 @@
         <v>6500.075391072234</v>
       </c>
       <c r="F4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="G4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="H4" t="n">
-        <v>9144.033827297713</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="I4" t="n">
-        <v>9144.033827297713</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="J4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="K4" t="n">
-        <v>6500.075391072233</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="L4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="M4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072235</v>
       </c>
       <c r="N4" t="n">
         <v>6500.075391072234</v>
@@ -26457,7 +26459,7 @@
         <v>6500.075391072234</v>
       </c>
       <c r="P4" t="n">
-        <v>2774.033579403125</v>
+        <v>6500.075391072234</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26525,7 +26527,7 @@
         <v>186.4221308458655</v>
       </c>
       <c r="D6" t="n">
-        <v>186.4221308458655</v>
+        <v>186.42213084588</v>
       </c>
       <c r="E6" t="n">
         <v>33814.02213084586</v>
@@ -26534,34 +26536,34 @@
         <v>33814.02213084586</v>
       </c>
       <c r="G6" t="n">
-        <v>33814.02213084588</v>
+        <v>33814.02213084586</v>
       </c>
       <c r="H6" t="n">
-        <v>-22349.13992114894</v>
+        <v>33814.02213084586</v>
       </c>
       <c r="I6" t="n">
-        <v>43273.6294368685</v>
+        <v>33814.02213084586</v>
       </c>
       <c r="J6" t="n">
-        <v>-13563.55984142837</v>
+        <v>-77200.44321414432</v>
       </c>
       <c r="K6" t="n">
-        <v>33814.02213084588</v>
+        <v>33814.02213084586</v>
       </c>
       <c r="L6" t="n">
-        <v>33814.02213084585</v>
+        <v>33814.02213084586</v>
       </c>
       <c r="M6" t="n">
-        <v>33814.02213084585</v>
+        <v>33814.02213084586</v>
       </c>
       <c r="N6" t="n">
         <v>33814.02213084586</v>
       </c>
       <c r="O6" t="n">
+        <v>33814.02213084586</v>
+      </c>
+      <c r="P6" t="n">
         <v>33814.02213084585</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14430.79152196935</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35018,19 +35020,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35252,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>202.897590957096</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L12" t="n">
+        <v>79.31589866453203</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N13" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>203.2851159259061</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36045,19 +36047,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>370.2350542247758</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>407.152590549595</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M24" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,19 +36524,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36677,19 +36679,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>385.2554146752024</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36753,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>203.2851159259061</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36771,7 +36773,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="M32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>288.796249040161</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>370.2350542247758</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O35" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P35" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="P35" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37385,10 +37387,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37467,13 +37469,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>58.38468441396105</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -37482,7 +37484,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37622,17 +37624,17 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M39" t="n">
-        <v>52.98895607821123</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,22 +37706,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37859,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P42" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L42" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>2.89759419967416</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>97.49087508054578</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57.40997659871164</v>
+        <v>-6292.727475753759</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11090349.17873481</v>
+        <v>11090349.1787348</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4171154.26153583</v>
+        <v>4171154.261535829</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>215.2285648127964</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>156.7784549731791</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.16075298123305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>69.36741552024799</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.1409460352257</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0626366504663</v>
+        <v>183.1520534065731</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>383.3590907834186</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>36.86753982161988</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>97.62474132385651</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>424.2958575201043</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.7962542907269</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>152.9189507365545</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>263.7799952318616</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>92.2311196057924</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.8635849988177</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>424.2958575201043</v>
+        <v>99.16681204501427</v>
       </c>
       <c r="D17" t="n">
         <v>424.2958575201043</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>56.41800393046368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>132.4132097347949</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C22" t="n">
-        <v>25.30817366908154</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2323,22 +2323,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>396.7961273016037</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>105.8716575806639</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>25.94453940742688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>106.3785108036302</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>282.0587206135786</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>19.35726169821097</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>71.02747652411061</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>22.56933810446021</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2797,22 +2797,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>237.5942688569073</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>4.665583214490516</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>126.5538903268827</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.63004609178796</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>19.35726169821097</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>264.192616710993</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>100.2948196749403</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>125.4289004454252</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3271,16 +3271,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>267.6156636911013</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>155.8532364480161</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>19.57530746287694</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.3792129943162</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>196.367567780873</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>98.58583512006639</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>126.5506474869049</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>19.35726169821097</v>
       </c>
       <c r="G41" t="n">
-        <v>17.69539570346167</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>5.64492333244486</v>
+        <v>10.52511815040115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>347.3637975681711</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>101.8387162641913</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.582856075998</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>187.2058002741626</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1479.780839360421</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1220.558536677438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>857.9415866112644</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0861320222976</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.5034523966074</v>
+        <v>478.3243058548424</v>
       </c>
       <c r="C4" t="n">
-        <v>527.9417408798323</v>
+        <v>305.7625943380673</v>
       </c>
       <c r="D4" t="n">
-        <v>362.063748081355</v>
+        <v>305.7625943380673</v>
       </c>
       <c r="E4" t="n">
-        <v>192.3057443320923</v>
+        <v>305.7625943380673</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>129.0555402998235</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>892.3220711155946</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y4" t="n">
-        <v>892.3220711155946</v>
+        <v>478.3243058548424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.1855120707613</v>
+        <v>104.0117650867073</v>
       </c>
       <c r="C5" t="n">
-        <v>444.6038378080297</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>444.6038378080297</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>444.6038378080297</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>530.3113355716151</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.1855120707613</v>
+        <v>530.3113355716151</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4652,16 +4652,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>870.9042498209665</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>890.8095618279922</v>
+        <v>1180.653961056715</v>
       </c>
       <c r="C8" t="n">
-        <v>890.8095618279922</v>
+        <v>1180.653961056715</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8095618279922</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.952025248681</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X8" t="n">
-        <v>890.8095618279922</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y8" t="n">
-        <v>890.8095618279922</v>
+        <v>1180.653961056715</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>957.0747370117651</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>784.5130254949901</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,52 +4962,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>957.0747370117651</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.3927724551322</v>
+        <v>725.9559027539632</v>
       </c>
       <c r="C11" t="n">
-        <v>461.8110981924006</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="D11" t="n">
-        <v>461.8110981924006</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5041,52 +5041,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.183430080417</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X11" t="n">
-        <v>1316.69234294004</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1316.69234294004</v>
+        <v>725.9559027539632</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R12" t="n">
         <v>1697.183430080417</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1319.688691389803</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="C14" t="n">
-        <v>891.1070171270717</v>
+        <v>300.8048976026114</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q14" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.5714734656729</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C16" t="n">
-        <v>380.4087263891149</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D16" t="n">
-        <v>380.4087263891149</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1697.183430080417</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="U16" t="n">
-        <v>1697.183430080417</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="V16" t="n">
-        <v>1410.227921950848</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="W16" t="n">
-        <v>1138.201517537139</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="X16" t="n">
-        <v>892.8097628705518</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.39009218466</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1319.688691389803</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="C17" t="n">
-        <v>891.1070171270717</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="D17" t="n">
-        <v>462.52534286434</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5518,49 +5518,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="P17" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
         <v>1159.957753041174</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>256.5228263338248</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>90.93155135965247</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>90.93155135965247</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5679,16 +5679,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>1108.937756271182</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>1528.990655216085</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5697,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.183430080417</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.974446717864</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="D20" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
         <v>33.94366860160834</v>
@@ -5755,16 +5755,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>167.6943855054416</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
         <v>384.5656667282782</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>236.2145344268032</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
         <v>33.94366860160834</v>
@@ -5910,52 +5910,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V22" t="n">
-        <v>1172.870982911978</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W22" t="n">
-        <v>900.8445784982696</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X22" t="n">
-        <v>655.4528238316821</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.0331531457903</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1292.327975491451</v>
+        <v>569.4664111276369</v>
       </c>
       <c r="C23" t="n">
-        <v>863.7463012287189</v>
+        <v>140.8847368649052</v>
       </c>
       <c r="D23" t="n">
-        <v>435.1646269659873</v>
+        <v>140.8847368649052</v>
       </c>
       <c r="E23" t="n">
-        <v>34.36045797446834</v>
+        <v>140.8847368649052</v>
       </c>
       <c r="F23" t="n">
-        <v>34.36045797446834</v>
+        <v>140.8847368649052</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -6004,37 +6004,37 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P23" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W23" t="n">
-        <v>1292.327975491451</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X23" t="n">
-        <v>1292.327975491451</v>
+        <v>569.4664111276369</v>
       </c>
       <c r="Y23" t="n">
-        <v>1292.327975491451</v>
+        <v>569.4664111276369</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,22 +6056,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
         <v>1159.957753041174</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1024.341879988165</v>
+        <v>406.6153318511622</v>
       </c>
       <c r="C25" t="n">
-        <v>851.7801684713901</v>
+        <v>406.6153318511622</v>
       </c>
       <c r="D25" t="n">
-        <v>685.9021756729128</v>
+        <v>406.6153318511622</v>
       </c>
       <c r="E25" t="n">
-        <v>516.14417192365</v>
+        <v>236.8573281018995</v>
       </c>
       <c r="F25" t="n">
-        <v>339.4371178854062</v>
+        <v>60.1502740636557</v>
       </c>
       <c r="G25" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
         <v>33.94366860160834</v>
@@ -6153,46 +6153,46 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M25" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U25" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.794921203953</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W25" t="n">
-        <v>1131.794921203953</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.341879988165</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y25" t="n">
-        <v>1024.341879988165</v>
+        <v>406.6153318511622</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1437.961127397434</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C26" t="n">
-        <v>1153.05332879786</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D26" t="n">
-        <v>724.4716545351282</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E26" t="n">
-        <v>724.4716545351282</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F26" t="n">
-        <v>724.4716545351282</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1437.961127397434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1437.961127397434</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="X26" t="n">
-        <v>1437.961127397434</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y26" t="n">
-        <v>1437.961127397434</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>452.1536521710448</v>
+        <v>564.9386878827499</v>
       </c>
       <c r="C28" t="n">
-        <v>380.4087263891149</v>
+        <v>392.3769763659749</v>
       </c>
       <c r="D28" t="n">
-        <v>380.4087263891149</v>
+        <v>226.4989835674976</v>
       </c>
       <c r="E28" t="n">
-        <v>210.6507226398521</v>
+        <v>56.74097981823482</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>56.74097981823482</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6384,19 +6384,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6411,25 +6411,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V28" t="n">
-        <v>1388.81010065622</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W28" t="n">
-        <v>1116.783696242511</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X28" t="n">
-        <v>871.3919415759237</v>
+        <v>984.1769772876289</v>
       </c>
       <c r="Y28" t="n">
-        <v>643.972270890032</v>
+        <v>756.7573066017371</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C29" t="n">
-        <v>1180.237171683855</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D29" t="n">
-        <v>751.6554974211238</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="E29" t="n">
-        <v>323.0738231583921</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="F29" t="n">
-        <v>323.0738231583921</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H29" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I29" t="n">
         <v>33.94366860160834</v>
@@ -6466,25 +6466,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M29" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N29" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6493,22 +6493,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y29" t="n">
-        <v>1608.818845946587</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.2409388405115</v>
+        <v>445.7470558378587</v>
       </c>
       <c r="C31" t="n">
-        <v>380.4087263891149</v>
+        <v>273.1853443210836</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4087263891149</v>
+        <v>107.3073515226063</v>
       </c>
       <c r="E31" t="n">
-        <v>210.6507226398521</v>
+        <v>107.3073515226063</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>107.3073515226063</v>
       </c>
       <c r="G31" t="n">
         <v>33.94366860160834</v>
@@ -6621,52 +6621,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V31" t="n">
-        <v>1172.870982911978</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W31" t="n">
-        <v>1172.870982911978</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X31" t="n">
-        <v>927.4792282453905</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0595575594987</v>
+        <v>637.5656745568458</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>462.52534286434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C32" t="n">
-        <v>33.94366860160834</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D32" t="n">
-        <v>33.94366860160834</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E32" t="n">
-        <v>33.94366860160834</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>437.0247332457074</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M32" t="n">
-        <v>857.0776321906106</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N32" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O32" t="n">
         <v>1697.183430080417</v>
@@ -6736,16 +6736,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>867.3807974533067</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>462.52534286434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X32" t="n">
-        <v>462.52534286434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y32" t="n">
-        <v>462.52534286434</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="33">
@@ -6770,13 +6770,13 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
         <v>384.5656667282782</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>884.4397056785397</v>
+        <v>477.8366140998854</v>
       </c>
       <c r="C34" t="n">
-        <v>711.8779941617646</v>
+        <v>477.8366140998854</v>
       </c>
       <c r="D34" t="n">
-        <v>546.0000013632873</v>
+        <v>311.958621301408</v>
       </c>
       <c r="E34" t="n">
-        <v>376.2419976140245</v>
+        <v>311.958621301408</v>
       </c>
       <c r="F34" t="n">
-        <v>199.5349435757807</v>
+        <v>135.2515672631642</v>
       </c>
       <c r="G34" t="n">
         <v>33.94366860160834</v>
@@ -6858,25 +6858,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6885,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1675.765608785789</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V34" t="n">
-        <v>1675.765608785789</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W34" t="n">
-        <v>1549.069749750006</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X34" t="n">
-        <v>1303.677995083419</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.258324397527</v>
+        <v>477.8366140998854</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C35" t="n">
-        <v>891.1070171270717</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D35" t="n">
-        <v>462.52534286434</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G35" t="n">
         <v>33.94366860160834</v>
@@ -6937,25 +6937,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
         <v>384.5656667282782</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.94366860160834</v>
+        <v>738.6214685456571</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94366860160834</v>
+        <v>566.059757028882</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>400.1817642304047</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>230.423760481142</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>53.71670644289819</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>53.71670644289819</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,19 +7095,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7125,22 +7125,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1535.988625963248</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1257.555625216353</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V37" t="n">
-        <v>970.6001170867833</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W37" t="n">
-        <v>698.5737126730747</v>
+        <v>1157.859757950536</v>
       </c>
       <c r="X37" t="n">
-        <v>453.1819580064872</v>
+        <v>1157.859757950536</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.7622873205955</v>
+        <v>930.4400872646443</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>521.4249017249305</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>521.4249017249305</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
         <v>323.0738231583921</v>
@@ -7177,49 +7177,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P38" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q38" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>929.7110254252771</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X38" t="n">
-        <v>929.7110254252771</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y38" t="n">
-        <v>521.4249017249305</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7256,22 +7256,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M39" t="n">
         <v>804.6185656731816</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
         <v>1580.010651986078</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>600.9454964518109</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C40" t="n">
-        <v>428.3837849350358</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D40" t="n">
-        <v>262.5057921365585</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>857.4612819097326</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.514180854636</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
@@ -7362,22 +7362,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1438.360409741983</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U40" t="n">
-        <v>1159.927408995089</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V40" t="n">
-        <v>872.9719008655193</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W40" t="n">
-        <v>600.9454964518109</v>
+        <v>1265.915656964706</v>
       </c>
       <c r="X40" t="n">
-        <v>600.9454964518109</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y40" t="n">
-        <v>600.9454964518109</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>908.266909529336</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C41" t="n">
-        <v>908.266909529336</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D41" t="n">
-        <v>908.266909529336</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6852352666043</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F41" t="n">
-        <v>51.81780567581205</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7414,16 +7414,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W41" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X41" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y41" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.00182921349</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C43" t="n">
-        <v>940.4401176967148</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D43" t="n">
-        <v>774.5621248982375</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E43" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M43" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7599,22 +7599,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1532.240118618369</v>
+        <v>1527.310628903261</v>
       </c>
       <c r="U43" t="n">
-        <v>1532.240118618369</v>
+        <v>1527.310628903261</v>
       </c>
       <c r="V43" t="n">
-        <v>1532.240118618369</v>
+        <v>1240.355120773692</v>
       </c>
       <c r="W43" t="n">
-        <v>1532.240118618369</v>
+        <v>968.3287163599834</v>
       </c>
       <c r="X43" t="n">
-        <v>1532.240118618369</v>
+        <v>968.3287163599834</v>
       </c>
       <c r="Y43" t="n">
-        <v>1304.820447932477</v>
+        <v>740.9090456740917</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1075.344177331261</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C44" t="n">
-        <v>1075.344177331261</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D44" t="n">
-        <v>1075.344177331261</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E44" t="n">
-        <v>1075.344177331261</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
         <v>33.94366860160834</v>
@@ -7648,25 +7648,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>1294.102365436318</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>1294.102365436318</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O44" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
         <v>1528.02936532736</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U44" t="n">
-        <v>1437.961127397434</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V44" t="n">
-        <v>1075.344177331261</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W44" t="n">
-        <v>1075.344177331261</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="X44" t="n">
-        <v>1075.344177331261</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="Y44" t="n">
-        <v>1075.344177331261</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
         <v>33.94366860160834</v>
@@ -7806,22 +7806,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>1292.259348259376</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P46" t="n">
         <v>1697.183430080417</v>
@@ -7836,22 +7836,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>1535.988625963248</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U46" t="n">
-        <v>1257.555625216353</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V46" t="n">
-        <v>970.6001170867833</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W46" t="n">
-        <v>698.5737126730747</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X46" t="n">
-        <v>453.1819580064872</v>
+        <v>933.8858245785766</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.7622873205955</v>
+        <v>744.789056624877</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>79.31589866453203</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O14" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9403,19 +9403,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10114,10 +10114,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P35" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10825,10 +10825,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q39" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N39" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O44" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="O46" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>21.40477901921543</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22600,19 +22600,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>2.637990042895353</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>18.16152852468227</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>69.77460924319756</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>364.393632568163</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22795,7 +22795,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>17.44780925965864</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>6.748379125224091</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22950,16 +22950,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23026,19 +23026,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>17.44780925965841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>367.3357226417232</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>66.59447154663602</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23235,13 +23235,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>9.465190568306582</v>
@@ -23266,10 +23266,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>168.6407431025609</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>38.26486251750879</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23466,19 +23466,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>122.7297200028712</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.31678347635085</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>167.7706917454383</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.60497479581491</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>13.5570669585116</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.31678347635085</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>9.465190568306582</v>
+        <v>334.5942360433967</v>
       </c>
       <c r="D17" t="n">
         <v>7.254829457195569</v>
@@ -23752,7 +23752,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23901,16 +23901,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>31.35534580260773</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>299.137477242505</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C22" t="n">
-        <v>145.5279207325258</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24138,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>32.64087009168401</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>291.5121954823048</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,10 +24366,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>137.9908228170037</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>136.5593263162915</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>151.7023274748323</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,13 +24457,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>381.4496383448661</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>99.8086178774967</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>141.3660241199704</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>185.994486437977</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.2009716412012</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>44.28220407472466</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>91.30531613264264</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24931,13 +24931,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>378.0265913647578</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>94.79816385451875</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>63.64054254949031</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>143.8772399241461</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>155.973091603783</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>244.9536635950609</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>118.9278451036523</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25365,19 +25365,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>105.0414389630131</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25405,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>201.0162852820958</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>144.8348168372629</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>116.3871896330168</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>404.2314935966734</v>
       </c>
       <c r="G41" t="n">
-        <v>379.6884573595071</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.7757286248844</v>
+        <v>232.8955338069281</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>76.22495772671323</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>302.3645461991518</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26076,13 +26076,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>83.83779588133126</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>37.93967370487024</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360729.042403468</v>
+        <v>360729.0424034679</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>360729.042403468</v>
+        <v>360729.0424034679</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360729.0424034679</v>
+        <v>360729.042403468</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="C2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="D2" t="n">
-        <v>66111.28565914046</v>
+        <v>66111.28565914044</v>
       </c>
       <c r="E2" t="n">
         <v>66111.28565914044</v>
@@ -26337,7 +26337,7 @@
         <v>66111.28565914044</v>
       </c>
       <c r="J2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="K2" t="n">
         <v>66111.28565914044</v>
@@ -26346,16 +26346,16 @@
         <v>66111.28565914044</v>
       </c>
       <c r="M2" t="n">
-        <v>66111.28565914044</v>
+        <v>66111.28565914043</v>
       </c>
       <c r="N2" t="n">
         <v>66111.28565914044</v>
       </c>
       <c r="O2" t="n">
+        <v>66111.28565914043</v>
+      </c>
+      <c r="P2" t="n">
         <v>66111.28565914044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>66111.28565914043</v>
       </c>
     </row>
     <row r="3">
@@ -26420,40 +26420,40 @@
         <v>6500.075391072234</v>
       </c>
       <c r="C4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="D4" t="n">
+        <v>6500.075391072233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6500.075391072233</v>
+      </c>
+      <c r="F4" t="n">
         <v>6500.075391072234</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6500.075391072234</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6500.075391072235</v>
       </c>
       <c r="G4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="H4" t="n">
+        <v>6500.075391072233</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6500.075391072234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6500.075391072234</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6500.075391072234</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6500.075391072234</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6500.075391072233</v>
+      </c>
+      <c r="N4" t="n">
         <v>6500.075391072235</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6500.075391072235</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6500.075391072233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6500.075391072235</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6500.075391072235</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6500.075391072235</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6500.075391072234</v>
       </c>
       <c r="O4" t="n">
         <v>6500.075391072234</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142004.8785288641</v>
+        <v>-142744.2351407798</v>
       </c>
       <c r="C6" t="n">
-        <v>186.4221308458655</v>
+        <v>-552.9344810697881</v>
       </c>
       <c r="D6" t="n">
-        <v>186.42213084588</v>
+        <v>-552.9344810697881</v>
       </c>
       <c r="E6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="F6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="G6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="H6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="I6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="J6" t="n">
-        <v>-77200.44321414432</v>
+        <v>-77939.79982605999</v>
       </c>
       <c r="K6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="L6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="M6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.6655189302</v>
       </c>
       <c r="N6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.66551893021</v>
       </c>
       <c r="O6" t="n">
-        <v>33814.02213084586</v>
+        <v>33074.6655189302</v>
       </c>
       <c r="P6" t="n">
-        <v>33814.02213084585</v>
+        <v>33074.66551893021</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>79.31589866453203</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O14" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>385.2554146752025</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N16" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36123,19 +36123,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P23" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36521,13 +36521,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K26" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36834,10 +36834,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P35" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37545,10 +37545,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q39" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N39" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37861,10 +37861,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O44" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="O46" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
